--- a/DSNhanVien.xlsx
+++ b/DSNhanVien.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
-  <si>
-    <t>Mã khách hàng</t>
-  </si>
-  <si>
-    <t>Tên Khách Hàng</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+  <si>
+    <t>Mã nhân viên</t>
+  </si>
+  <si>
+    <t>Tên nhân viên</t>
   </si>
   <si>
     <t>Giới tính</t>
@@ -138,6 +138,48 @@
   </si>
   <si>
     <t>425 Huỳnh Văn Bánh quận Phú Nhuận</t>
+  </si>
+  <si>
+    <t>NV007</t>
+  </si>
+  <si>
+    <t>Nhi Nhi</t>
+  </si>
+  <si>
+    <t>123456789012</t>
+  </si>
+  <si>
+    <t>0343906003</t>
+  </si>
+  <si>
+    <t>123A</t>
+  </si>
+  <si>
+    <t>Ca 3</t>
+  </si>
+  <si>
+    <t>NV008</t>
+  </si>
+  <si>
+    <t>Huỳnh Dương</t>
+  </si>
+  <si>
+    <t>0343906004</t>
+  </si>
+  <si>
+    <t>Ca 1</t>
+  </si>
+  <si>
+    <t>NV009</t>
+  </si>
+  <si>
+    <t>Dương Dương</t>
+  </si>
+  <si>
+    <t>0343906005</t>
+  </si>
+  <si>
+    <t>Ca 2</t>
   </si>
 </sst>
 </file>
@@ -182,7 +224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -349,6 +391,75 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
